--- a/5. Cohort Analysis/Cohort Analysis.xlsx
+++ b/5. Cohort Analysis/Cohort Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhand Pratap Singh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhand Pratap Singh\Desktop\Excel Project\5. Cohort Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6BFF73-1072-4C3C-A4FD-42BC34683F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409CA6B-A93B-4613-A40E-406441475BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A0FE795C-7DD8-4A1E-8CBD-24FA51AA9D15}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="2062">
   <si>
     <t>ID</t>
   </si>
@@ -6221,10 +6221,13 @@
     <t>2019 Jul</t>
   </si>
   <si>
-    <t>Retention Analysis</t>
-  </si>
-  <si>
-    <t>Churn Analysis</t>
+    <t>Customer Retention Analysis</t>
+  </si>
+  <si>
+    <t>Month- Year</t>
+  </si>
+  <si>
+    <t>Customer Churn Analysis</t>
   </si>
 </sst>
 </file>
@@ -6279,14 +6282,14 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6305,14 +6308,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6320,12 +6317,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6336,11 +6343,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -17188,3195 +17196,3208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA20FB-5AFD-4604-80DB-3500ECA91BF3}">
-  <dimension ref="A1:AA90"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="K1" s="10" t="s">
+    <row r="1" spans="1:27" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
         <v>2059</v>
       </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-    </row>
-    <row r="3" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" ht="11" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>2051</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C4" s="7" t="str">
         <f>3&amp; " Month"</f>
         <v>3 Month</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D4" s="7" t="str">
         <f>4&amp; " Month"</f>
         <v>4 Month</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E4" s="7" t="str">
         <f>5&amp; " Month"</f>
         <v>5 Month</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F4" s="7" t="str">
         <f>6&amp; " Month"</f>
         <v>6 Month</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G4" s="7" t="str">
         <f>7&amp; " Month"</f>
         <v>7 Month</v>
       </c>
-      <c r="H3" s="7" t="str">
+      <c r="H4" s="7" t="str">
         <f>8&amp; " Month"</f>
         <v>8 Month</v>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I4" s="7" t="str">
         <f>9&amp; " Month"</f>
         <v>9 Month</v>
       </c>
-      <c r="J3" s="7" t="str">
+      <c r="J4" s="7" t="str">
         <f>10&amp; " Month"</f>
         <v>10 Month</v>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>11&amp; " Month"</f>
         <v>11 Month</v>
       </c>
-      <c r="L3" s="7" t="str">
+      <c r="L4" s="7" t="str">
         <f>12&amp; " Month"</f>
         <v>12 Month</v>
       </c>
-      <c r="M3" s="7" t="str">
+      <c r="M4" s="7" t="str">
         <f>13&amp; " Month"</f>
         <v>13 Month</v>
       </c>
-      <c r="N3" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f>14&amp; " Month"</f>
         <v>14 Month</v>
       </c>
-      <c r="O3" s="7" t="str">
+      <c r="O4" s="7" t="str">
         <f>15&amp; " Month"</f>
         <v>15 Month</v>
       </c>
-      <c r="P3" s="7" t="str">
+      <c r="P4" s="7" t="str">
         <f>16&amp; " Month"</f>
         <v>16 Month</v>
       </c>
-      <c r="Q3" s="7" t="str">
+      <c r="Q4" s="7" t="str">
         <f>17&amp; " Month"</f>
         <v>17 Month</v>
       </c>
-      <c r="R3" s="7" t="str">
+      <c r="R4" s="7" t="str">
         <f>18&amp; " Month"</f>
         <v>18 Month</v>
       </c>
-      <c r="S3" s="7" t="str">
+      <c r="S4" s="7" t="str">
         <f>19&amp; " Month"</f>
         <v>19 Month</v>
       </c>
-      <c r="T3" s="7" t="str">
+      <c r="T4" s="7" t="str">
         <f>20&amp; " Month"</f>
         <v>20 Month</v>
       </c>
-      <c r="U3" s="7" t="str">
+      <c r="U4" s="7" t="str">
         <f>21&amp; " Month"</f>
         <v>21 Month</v>
       </c>
-      <c r="V3" s="7" t="str">
+      <c r="V4" s="7" t="str">
         <f>22&amp; " Month"</f>
         <v>22 Month</v>
       </c>
-      <c r="W3" s="7" t="str">
+      <c r="W4" s="7" t="str">
         <f>23&amp; " Month"</f>
         <v>23 Month</v>
       </c>
-      <c r="X3" s="7" t="str">
+      <c r="X4" s="7" t="str">
         <f>24&amp; " Month"</f>
         <v>24 Month</v>
       </c>
-      <c r="Y3" s="7" t="str">
+      <c r="Y4" s="7" t="str">
         <f>25&amp; " Month"</f>
         <v>25 Month</v>
       </c>
-      <c r="Z3" s="7" t="str">
+      <c r="Z4" s="7" t="str">
         <f>26&amp; " Month"</f>
         <v>26 Month</v>
       </c>
-      <c r="AA3" s="7" t="str">
+      <c r="AA4" s="7" t="str">
         <f>27&amp; " Month"</f>
         <v>27 Month</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2031</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="8">
         <f>'Churn Analysis'!B4/'Churn Analysis'!$B4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="9">
         <f>'Churn Analysis'!C4/'Churn Analysis'!$B4</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="9">
         <f>'Churn Analysis'!D4/'Churn Analysis'!$B4</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="9">
         <f>'Churn Analysis'!E4/'Churn Analysis'!$B4</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="9">
         <f>'Churn Analysis'!F4/'Churn Analysis'!$B4</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="9">
         <f>'Churn Analysis'!G4/'Churn Analysis'!$B4</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="9">
         <f>'Churn Analysis'!H4/'Churn Analysis'!$B4</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I5" s="9">
         <f>'Churn Analysis'!I4/'Churn Analysis'!$B4</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="9">
         <f>'Churn Analysis'!J4/'Churn Analysis'!$B4</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K5" s="9">
         <f>'Churn Analysis'!K4/'Churn Analysis'!$B4</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="9">
         <f>'Churn Analysis'!L4/'Churn Analysis'!$B4</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="9">
         <f>'Churn Analysis'!M4/'Churn Analysis'!$B4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N5" s="9">
         <f>'Churn Analysis'!N4/'Churn Analysis'!$B4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O5" s="9">
         <f>'Churn Analysis'!O4/'Churn Analysis'!$B4</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P5" s="9">
         <f>'Churn Analysis'!P4/'Churn Analysis'!$B4</f>
         <v>0.5</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q5" s="9">
         <f>'Churn Analysis'!Q4/'Churn Analysis'!$B4</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R5" s="9">
         <f>'Churn Analysis'!R4/'Churn Analysis'!$B4</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S5" s="9">
         <f>'Churn Analysis'!S4/'Churn Analysis'!$B4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T5" s="9">
         <f>'Churn Analysis'!T4/'Churn Analysis'!$B4</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U5" s="9">
         <f>'Churn Analysis'!U4/'Churn Analysis'!$B4</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V5" s="9">
         <f>'Churn Analysis'!V4/'Churn Analysis'!$B4</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W5" s="9">
         <f>'Churn Analysis'!W4/'Churn Analysis'!$B4</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X5" s="9">
         <f>'Churn Analysis'!X4/'Churn Analysis'!$B4</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y5" s="9">
         <f>'Churn Analysis'!Y4/'Churn Analysis'!$B4</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z5" s="9">
         <f>'Churn Analysis'!Z4/'Churn Analysis'!$B4</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA5" s="9">
         <f>'Churn Analysis'!AA4/'Churn Analysis'!$B4</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>2032</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="8">
         <f>'Churn Analysis'!B5/'Churn Analysis'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="9">
         <f>'Churn Analysis'!C5/'Churn Analysis'!$B5</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <f>'Churn Analysis'!D5/'Churn Analysis'!$B5</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <f>'Churn Analysis'!E5/'Churn Analysis'!$B5</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <f>'Churn Analysis'!F5/'Churn Analysis'!$B5</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G6" s="9">
         <f>'Churn Analysis'!G5/'Churn Analysis'!$B5</f>
         <v>0.8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="9">
         <f>'Churn Analysis'!H5/'Churn Analysis'!$B5</f>
         <v>0.75</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I6" s="9">
         <f>'Churn Analysis'!I5/'Churn Analysis'!$B5</f>
         <v>0.75</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J6" s="9">
         <f>'Churn Analysis'!J5/'Churn Analysis'!$B5</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K6" s="9">
         <f>'Churn Analysis'!K5/'Churn Analysis'!$B5</f>
         <v>0.7</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L6" s="9">
         <f>'Churn Analysis'!L5/'Churn Analysis'!$B5</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="9">
         <f>'Churn Analysis'!M5/'Churn Analysis'!$B5</f>
         <v>0.65</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="9">
         <f>'Churn Analysis'!N5/'Churn Analysis'!$B5</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O6" s="9">
         <f>'Churn Analysis'!O5/'Churn Analysis'!$B5</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P6" s="9">
         <f>'Churn Analysis'!P5/'Churn Analysis'!$B5</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q6" s="9">
         <f>'Churn Analysis'!Q5/'Churn Analysis'!$B5</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R6" s="9">
         <f>'Churn Analysis'!R5/'Churn Analysis'!$B5</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S6" s="9">
         <f>'Churn Analysis'!S5/'Churn Analysis'!$B5</f>
         <v>0.5</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T6" s="9">
         <f>'Churn Analysis'!T5/'Churn Analysis'!$B5</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U6" s="9">
         <f>'Churn Analysis'!U5/'Churn Analysis'!$B5</f>
         <v>0.45</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V6" s="9">
         <f>'Churn Analysis'!V5/'Churn Analysis'!$B5</f>
         <v>0.4</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W6" s="9">
         <f>'Churn Analysis'!W5/'Churn Analysis'!$B5</f>
         <v>0.35</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X6" s="9">
         <f>'Churn Analysis'!X5/'Churn Analysis'!$B5</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y6" s="9">
         <f>'Churn Analysis'!Y5/'Churn Analysis'!$B5</f>
         <v>0.3</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z6" s="9">
         <f>'Churn Analysis'!Z5/'Churn Analysis'!$B5</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA6" s="9">
         <f>'Churn Analysis'!AA5/'Churn Analysis'!$B5</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>2033</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="8">
         <f>'Churn Analysis'!B6/'Churn Analysis'!$B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <f>'Churn Analysis'!C6/'Churn Analysis'!$B6</f>
         <v>0.98076923076923073</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <f>'Churn Analysis'!D6/'Churn Analysis'!$B6</f>
         <v>0.98076923076923073</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <f>'Churn Analysis'!E6/'Churn Analysis'!$B6</f>
         <v>0.96153846153846156</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <f>'Churn Analysis'!F6/'Churn Analysis'!$B6</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <f>'Churn Analysis'!G6/'Churn Analysis'!$B6</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <f>'Churn Analysis'!H6/'Churn Analysis'!$B6</f>
         <v>0.86538461538461542</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <f>'Churn Analysis'!I6/'Churn Analysis'!$B6</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="9">
         <f>'Churn Analysis'!J6/'Churn Analysis'!$B6</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <f>'Churn Analysis'!K6/'Churn Analysis'!$B6</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <f>'Churn Analysis'!L6/'Churn Analysis'!$B6</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <f>'Churn Analysis'!M6/'Churn Analysis'!$B6</f>
         <v>0.67307692307692313</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <f>'Churn Analysis'!N6/'Churn Analysis'!$B6</f>
         <v>0.67307692307692313</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O7" s="9">
         <f>'Churn Analysis'!O6/'Churn Analysis'!$B6</f>
         <v>0.57692307692307687</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P7" s="9">
         <f>'Churn Analysis'!P6/'Churn Analysis'!$B6</f>
         <v>0.51923076923076927</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q7" s="9">
         <f>'Churn Analysis'!Q6/'Churn Analysis'!$B6</f>
         <v>0.44230769230769229</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R7" s="9">
         <f>'Churn Analysis'!R6/'Churn Analysis'!$B6</f>
         <v>0.42307692307692307</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S7" s="9">
         <f>'Churn Analysis'!S6/'Churn Analysis'!$B6</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T7" s="9">
         <f>'Churn Analysis'!T6/'Churn Analysis'!$B6</f>
         <v>0.36538461538461536</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U7" s="9">
         <f>'Churn Analysis'!U6/'Churn Analysis'!$B6</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V7" s="9">
         <f>'Churn Analysis'!V6/'Churn Analysis'!$B6</f>
         <v>0.28846153846153844</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W7" s="9">
         <f>'Churn Analysis'!W6/'Churn Analysis'!$B6</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X7" s="9">
         <f>'Churn Analysis'!X6/'Churn Analysis'!$B6</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y7" s="9">
         <f>'Churn Analysis'!Y6/'Churn Analysis'!$B6</f>
         <v>0.21153846153846154</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z7" s="9">
         <f>'Churn Analysis'!Z6/'Churn Analysis'!$B6</f>
         <v>0.17307692307692307</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA7" s="9">
         <f>'Churn Analysis'!AA6/'Churn Analysis'!$B6</f>
         <v>0.17307692307692307</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>2034</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="8">
         <f>'Churn Analysis'!B7/'Churn Analysis'!$B7</f>
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="9">
         <f>'Churn Analysis'!C7/'Churn Analysis'!$B7</f>
         <v>0.9555555555555556</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <f>'Churn Analysis'!D7/'Churn Analysis'!$B7</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <f>'Churn Analysis'!E7/'Churn Analysis'!$B7</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <f>'Churn Analysis'!F7/'Churn Analysis'!$B7</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <f>'Churn Analysis'!G7/'Churn Analysis'!$B7</f>
         <v>0.84444444444444444</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <f>'Churn Analysis'!H7/'Churn Analysis'!$B7</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <f>'Churn Analysis'!I7/'Churn Analysis'!$B7</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <f>'Churn Analysis'!J7/'Churn Analysis'!$B7</f>
         <v>0.75555555555555554</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <f>'Churn Analysis'!K7/'Churn Analysis'!$B7</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <f>'Churn Analysis'!L7/'Churn Analysis'!$B7</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="9">
         <f>'Churn Analysis'!M7/'Churn Analysis'!$B7</f>
         <v>0.71111111111111114</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <f>'Churn Analysis'!N7/'Churn Analysis'!$B7</f>
         <v>0.62222222222222223</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O8" s="9">
         <f>'Churn Analysis'!O7/'Churn Analysis'!$B7</f>
         <v>0.6</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P8" s="9">
         <f>'Churn Analysis'!P7/'Churn Analysis'!$B7</f>
         <v>0.57777777777777772</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q8" s="9">
         <f>'Churn Analysis'!Q7/'Churn Analysis'!$B7</f>
         <v>0.51111111111111107</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R8" s="9">
         <f>'Churn Analysis'!R7/'Churn Analysis'!$B7</f>
         <v>0.42222222222222222</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S8" s="9">
         <f>'Churn Analysis'!S7/'Churn Analysis'!$B7</f>
         <v>0.4</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T8" s="9">
         <f>'Churn Analysis'!T7/'Churn Analysis'!$B7</f>
         <v>0.37777777777777777</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U8" s="9">
         <f>'Churn Analysis'!U7/'Churn Analysis'!$B7</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V8" s="9">
         <f>'Churn Analysis'!V7/'Churn Analysis'!$B7</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W8" s="9">
         <f>'Churn Analysis'!W7/'Churn Analysis'!$B7</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X8" s="9">
         <f>'Churn Analysis'!X7/'Churn Analysis'!$B7</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y8" s="9">
         <f>'Churn Analysis'!Y7/'Churn Analysis'!$B7</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z8" s="9">
         <f>'Churn Analysis'!Z7/'Churn Analysis'!$B7</f>
         <v>0.2</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA8" s="9">
         <f>'Churn Analysis'!AA7/'Churn Analysis'!$B7</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>2035</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="8">
         <f>'Churn Analysis'!B8/'Churn Analysis'!$B8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <f>'Churn Analysis'!C8/'Churn Analysis'!$B8</f>
         <v>0.96153846153846156</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <f>'Churn Analysis'!D8/'Churn Analysis'!$B8</f>
         <v>0.90384615384615385</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <f>'Churn Analysis'!E8/'Churn Analysis'!$B8</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <f>'Churn Analysis'!F8/'Churn Analysis'!$B8</f>
         <v>0.86538461538461542</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <f>'Churn Analysis'!G8/'Churn Analysis'!$B8</f>
         <v>0.80769230769230771</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <f>'Churn Analysis'!H8/'Churn Analysis'!$B8</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <f>'Churn Analysis'!I8/'Churn Analysis'!$B8</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <f>'Churn Analysis'!J8/'Churn Analysis'!$B8</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <f>'Churn Analysis'!K8/'Churn Analysis'!$B8</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <f>'Churn Analysis'!L8/'Churn Analysis'!$B8</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="9">
         <f>'Churn Analysis'!M8/'Churn Analysis'!$B8</f>
         <v>0.63461538461538458</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="9">
         <f>'Churn Analysis'!N8/'Churn Analysis'!$B8</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O9" s="9">
         <f>'Churn Analysis'!O8/'Churn Analysis'!$B8</f>
         <v>0.57692307692307687</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P9" s="9">
         <f>'Churn Analysis'!P8/'Churn Analysis'!$B8</f>
         <v>0.55769230769230771</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q9" s="9">
         <f>'Churn Analysis'!Q8/'Churn Analysis'!$B8</f>
         <v>0.51923076923076927</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R9" s="9">
         <f>'Churn Analysis'!R8/'Churn Analysis'!$B8</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S9" s="9">
         <f>'Churn Analysis'!S8/'Churn Analysis'!$B8</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T9" s="9">
         <f>'Churn Analysis'!T8/'Churn Analysis'!$B8</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U9" s="9">
         <f>'Churn Analysis'!U8/'Churn Analysis'!$B8</f>
         <v>0.36538461538461536</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V9" s="9">
         <f>'Churn Analysis'!V8/'Churn Analysis'!$B8</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W9" s="9">
         <f>'Churn Analysis'!W8/'Churn Analysis'!$B8</f>
         <v>0.28846153846153844</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X9" s="9">
         <f>'Churn Analysis'!X8/'Churn Analysis'!$B8</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y9" s="9">
         <f>'Churn Analysis'!Y8/'Churn Analysis'!$B8</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z9" s="9">
         <f>'Churn Analysis'!Z8/'Churn Analysis'!$B8</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA9" s="9">
         <f>'Churn Analysis'!AA8/'Churn Analysis'!$B8</f>
         <v>0.13461538461538461</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>2036</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <f>'Churn Analysis'!B9/'Churn Analysis'!$B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="9">
         <f>'Churn Analysis'!C9/'Churn Analysis'!$B9</f>
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <f>'Churn Analysis'!D9/'Churn Analysis'!$B9</f>
         <v>0.91891891891891897</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <f>'Churn Analysis'!E9/'Churn Analysis'!$B9</f>
         <v>0.91891891891891897</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <f>'Churn Analysis'!F9/'Churn Analysis'!$B9</f>
         <v>0.89189189189189189</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <f>'Churn Analysis'!G9/'Churn Analysis'!$B9</f>
         <v>0.89189189189189189</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <f>'Churn Analysis'!H9/'Churn Analysis'!$B9</f>
         <v>0.83783783783783783</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <f>'Churn Analysis'!I9/'Churn Analysis'!$B9</f>
         <v>0.78378378378378377</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J10" s="9">
         <f>'Churn Analysis'!J9/'Churn Analysis'!$B9</f>
         <v>0.78378378378378377</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <f>'Churn Analysis'!K9/'Churn Analysis'!$B9</f>
         <v>0.7567567567567568</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <f>'Churn Analysis'!L9/'Churn Analysis'!$B9</f>
         <v>0.7567567567567568</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M10" s="9">
         <f>'Churn Analysis'!M9/'Churn Analysis'!$B9</f>
         <v>0.72972972972972971</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="9">
         <f>'Churn Analysis'!N9/'Churn Analysis'!$B9</f>
         <v>0.64864864864864868</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O10" s="9">
         <f>'Churn Analysis'!O9/'Churn Analysis'!$B9</f>
         <v>0.64864864864864868</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P10" s="9">
         <f>'Churn Analysis'!P9/'Churn Analysis'!$B9</f>
         <v>0.59459459459459463</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q10" s="9">
         <f>'Churn Analysis'!Q9/'Churn Analysis'!$B9</f>
         <v>0.59459459459459463</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R10" s="9">
         <f>'Churn Analysis'!R9/'Churn Analysis'!$B9</f>
         <v>0.43243243243243246</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S10" s="9">
         <f>'Churn Analysis'!S9/'Churn Analysis'!$B9</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T10" s="9">
         <f>'Churn Analysis'!T9/'Churn Analysis'!$B9</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U10" s="9">
         <f>'Churn Analysis'!U9/'Churn Analysis'!$B9</f>
         <v>0.3783783783783784</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V10" s="9">
         <f>'Churn Analysis'!V9/'Churn Analysis'!$B9</f>
         <v>0.32432432432432434</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W10" s="9">
         <f>'Churn Analysis'!W9/'Churn Analysis'!$B9</f>
         <v>0.29729729729729731</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X10" s="9">
         <f>'Churn Analysis'!X9/'Churn Analysis'!$B9</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y10" s="9">
         <f>'Churn Analysis'!Y9/'Churn Analysis'!$B9</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z10" s="9">
         <f>'Churn Analysis'!Z9/'Churn Analysis'!$B9</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA10" s="9">
         <f>'Churn Analysis'!AA9/'Churn Analysis'!$B9</f>
         <v>0.21621621621621623</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>2037</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <f>'Churn Analysis'!B10/'Churn Analysis'!$B10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="9">
         <f>'Churn Analysis'!C10/'Churn Analysis'!$B10</f>
         <v>0.96</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <f>'Churn Analysis'!D10/'Churn Analysis'!$B10</f>
         <v>0.9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <f>'Churn Analysis'!E10/'Churn Analysis'!$B10</f>
         <v>0.88</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <f>'Churn Analysis'!F10/'Churn Analysis'!$B10</f>
         <v>0.88</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <f>'Churn Analysis'!G10/'Churn Analysis'!$B10</f>
         <v>0.84</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <f>'Churn Analysis'!H10/'Churn Analysis'!$B10</f>
         <v>0.8</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <f>'Churn Analysis'!I10/'Churn Analysis'!$B10</f>
         <v>0.78</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="9">
         <f>'Churn Analysis'!J10/'Churn Analysis'!$B10</f>
         <v>0.74</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <f>'Churn Analysis'!K10/'Churn Analysis'!$B10</f>
         <v>0.66</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <f>'Churn Analysis'!L10/'Churn Analysis'!$B10</f>
         <v>0.62</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <f>'Churn Analysis'!M10/'Churn Analysis'!$B10</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <f>'Churn Analysis'!N10/'Churn Analysis'!$B10</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O11" s="9">
         <f>'Churn Analysis'!O10/'Churn Analysis'!$B10</f>
         <v>0.54</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P11" s="9">
         <f>'Churn Analysis'!P10/'Churn Analysis'!$B10</f>
         <v>0.5</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q11" s="9">
         <f>'Churn Analysis'!Q10/'Churn Analysis'!$B10</f>
         <v>0.5</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R11" s="9">
         <f>'Churn Analysis'!R10/'Churn Analysis'!$B10</f>
         <v>0.48</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S11" s="9">
         <f>'Churn Analysis'!S10/'Churn Analysis'!$B10</f>
         <v>0.44</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T11" s="9">
         <f>'Churn Analysis'!T10/'Churn Analysis'!$B10</f>
         <v>0.42</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U11" s="9">
         <f>'Churn Analysis'!U10/'Churn Analysis'!$B10</f>
         <v>0.42</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V11" s="9">
         <f>'Churn Analysis'!V10/'Churn Analysis'!$B10</f>
         <v>0.42</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W11" s="9">
         <f>'Churn Analysis'!W10/'Churn Analysis'!$B10</f>
         <v>0.36</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X11" s="9">
         <f>'Churn Analysis'!X10/'Churn Analysis'!$B10</f>
         <v>0.32</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y11" s="9">
         <f>'Churn Analysis'!Y10/'Churn Analysis'!$B10</f>
         <v>0.3</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z11" s="9">
         <f>'Churn Analysis'!Z10/'Churn Analysis'!$B10</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA11" s="9">
         <f>'Churn Analysis'!AA10/'Churn Analysis'!$B10</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>2038</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B12" s="8">
         <f>'Churn Analysis'!B11/'Churn Analysis'!$B11</f>
         <v>1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="9">
         <f>'Churn Analysis'!C11/'Churn Analysis'!$B11</f>
         <v>0.9555555555555556</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <f>'Churn Analysis'!D11/'Churn Analysis'!$B11</f>
         <v>0.9555555555555556</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <f>'Churn Analysis'!E11/'Churn Analysis'!$B11</f>
         <v>0.91111111111111109</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <f>'Churn Analysis'!F11/'Churn Analysis'!$B11</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <f>'Churn Analysis'!G11/'Churn Analysis'!$B11</f>
         <v>0.84444444444444444</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="9">
         <f>'Churn Analysis'!H11/'Churn Analysis'!$B11</f>
         <v>0.82222222222222219</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="9">
         <f>'Churn Analysis'!I11/'Churn Analysis'!$B11</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="9">
         <f>'Churn Analysis'!J11/'Churn Analysis'!$B11</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="9">
         <f>'Churn Analysis'!K11/'Churn Analysis'!$B11</f>
         <v>0.68888888888888888</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="9">
         <f>'Churn Analysis'!L11/'Churn Analysis'!$B11</f>
         <v>0.68888888888888888</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M12" s="9">
         <f>'Churn Analysis'!M11/'Churn Analysis'!$B11</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N12" s="9">
         <f>'Churn Analysis'!N11/'Churn Analysis'!$B11</f>
         <v>0.6</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O12" s="9">
         <f>'Churn Analysis'!O11/'Churn Analysis'!$B11</f>
         <v>0.57777777777777772</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P12" s="9">
         <f>'Churn Analysis'!P11/'Churn Analysis'!$B11</f>
         <v>0.48888888888888887</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q12" s="9">
         <f>'Churn Analysis'!Q11/'Churn Analysis'!$B11</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R12" s="9">
         <f>'Churn Analysis'!R11/'Churn Analysis'!$B11</f>
         <v>0.42222222222222222</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S12" s="9">
         <f>'Churn Analysis'!S11/'Churn Analysis'!$B11</f>
         <v>0.28888888888888886</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T12" s="9">
         <f>'Churn Analysis'!T11/'Churn Analysis'!$B11</f>
         <v>0.28888888888888886</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U12" s="9">
         <f>'Churn Analysis'!U11/'Churn Analysis'!$B11</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V12" s="9">
         <f>'Churn Analysis'!V11/'Churn Analysis'!$B11</f>
         <v>0.24444444444444444</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W12" s="9">
         <f>'Churn Analysis'!W11/'Churn Analysis'!$B11</f>
         <v>0.2</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X12" s="9">
         <f>'Churn Analysis'!X11/'Churn Analysis'!$B11</f>
         <v>0.15555555555555556</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y12" s="9">
         <f>'Churn Analysis'!Y11/'Churn Analysis'!$B11</f>
         <v>0.15555555555555556</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z12" s="9">
         <f>'Churn Analysis'!Z11/'Churn Analysis'!$B11</f>
         <v>0.15555555555555556</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA12" s="9">
         <f>'Churn Analysis'!AA11/'Churn Analysis'!$B11</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>2039</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <f>'Churn Analysis'!B12/'Churn Analysis'!$B12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <f>'Churn Analysis'!C12/'Churn Analysis'!$B12</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <f>'Churn Analysis'!D12/'Churn Analysis'!$B12</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <f>'Churn Analysis'!E12/'Churn Analysis'!$B12</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <f>'Churn Analysis'!F12/'Churn Analysis'!$B12</f>
         <v>0.83870967741935487</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <f>'Churn Analysis'!G12/'Churn Analysis'!$B12</f>
         <v>0.80645161290322576</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <f>'Churn Analysis'!H12/'Churn Analysis'!$B12</f>
         <v>0.77419354838709675</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <f>'Churn Analysis'!I12/'Churn Analysis'!$B12</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="9">
         <f>'Churn Analysis'!J12/'Churn Analysis'!$B12</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K13" s="9">
         <f>'Churn Analysis'!K12/'Churn Analysis'!$B12</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="9">
         <f>'Churn Analysis'!L12/'Churn Analysis'!$B12</f>
         <v>0.67741935483870963</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M13" s="9">
         <f>'Churn Analysis'!M12/'Churn Analysis'!$B12</f>
         <v>0.64516129032258063</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="9">
         <f>'Churn Analysis'!N12/'Churn Analysis'!$B12</f>
         <v>0.64516129032258063</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O13" s="9">
         <f>'Churn Analysis'!O12/'Churn Analysis'!$B12</f>
         <v>0.58064516129032262</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P13" s="9">
         <f>'Churn Analysis'!P12/'Churn Analysis'!$B12</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q13" s="9">
         <f>'Churn Analysis'!Q12/'Churn Analysis'!$B12</f>
         <v>0.4838709677419355</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R13" s="9">
         <f>'Churn Analysis'!R12/'Churn Analysis'!$B12</f>
         <v>0.4838709677419355</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S13" s="9">
         <f>'Churn Analysis'!S12/'Churn Analysis'!$B12</f>
         <v>0.45161290322580644</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T13" s="9">
         <f>'Churn Analysis'!T12/'Churn Analysis'!$B12</f>
         <v>0.41935483870967744</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U13" s="9">
         <f>'Churn Analysis'!U12/'Churn Analysis'!$B12</f>
         <v>0.25806451612903225</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V13" s="9">
         <f>'Churn Analysis'!V12/'Churn Analysis'!$B12</f>
         <v>0.22580645161290322</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W13" s="9">
         <f>'Churn Analysis'!W12/'Churn Analysis'!$B12</f>
         <v>0.22580645161290322</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X13" s="9">
         <f>'Churn Analysis'!X12/'Churn Analysis'!$B12</f>
         <v>0.19354838709677419</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y13" s="9">
         <f>'Churn Analysis'!Y12/'Churn Analysis'!$B12</f>
         <v>0.12903225806451613</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z13" s="9">
         <f>'Churn Analysis'!Z12/'Churn Analysis'!$B12</f>
         <v>0.12903225806451613</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA13" s="9">
         <f>'Churn Analysis'!AA12/'Churn Analysis'!$B12</f>
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>2040</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <f>'Churn Analysis'!B13/'Churn Analysis'!$B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <f>'Churn Analysis'!C13/'Churn Analysis'!$B13</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <f>'Churn Analysis'!D13/'Churn Analysis'!$B13</f>
         <v>0.89743589743589747</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <f>'Churn Analysis'!E13/'Churn Analysis'!$B13</f>
         <v>0.89743589743589747</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <f>'Churn Analysis'!F13/'Churn Analysis'!$B13</f>
         <v>0.89743589743589747</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <f>'Churn Analysis'!G13/'Churn Analysis'!$B13</f>
         <v>0.89743589743589747</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <f>'Churn Analysis'!H13/'Churn Analysis'!$B13</f>
         <v>0.87179487179487181</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <f>'Churn Analysis'!I13/'Churn Analysis'!$B13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <f>'Churn Analysis'!J13/'Churn Analysis'!$B13</f>
         <v>0.79487179487179482</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <f>'Churn Analysis'!K13/'Churn Analysis'!$B13</f>
         <v>0.79487179487179482</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <f>'Churn Analysis'!L13/'Churn Analysis'!$B13</f>
         <v>0.74358974358974361</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="9">
         <f>'Churn Analysis'!M13/'Churn Analysis'!$B13</f>
         <v>0.74358974358974361</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <f>'Churn Analysis'!N13/'Churn Analysis'!$B13</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O14" s="9">
         <f>'Churn Analysis'!O13/'Churn Analysis'!$B13</f>
         <v>0.64102564102564108</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P14" s="9">
         <f>'Churn Analysis'!P13/'Churn Analysis'!$B13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q14" s="9">
         <f>'Churn Analysis'!Q13/'Churn Analysis'!$B13</f>
         <v>0.51282051282051277</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R14" s="9">
         <f>'Churn Analysis'!R13/'Churn Analysis'!$B13</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S14" s="9">
         <f>'Churn Analysis'!S13/'Churn Analysis'!$B13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T14" s="9">
         <f>'Churn Analysis'!T13/'Churn Analysis'!$B13</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U14" s="9">
         <f>'Churn Analysis'!U13/'Churn Analysis'!$B13</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V14" s="9">
         <f>'Churn Analysis'!V13/'Churn Analysis'!$B13</f>
         <v>0.25641025641025639</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W14" s="9">
         <f>'Churn Analysis'!W13/'Churn Analysis'!$B13</f>
         <v>0.20512820512820512</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X14" s="9">
         <f>'Churn Analysis'!X13/'Churn Analysis'!$B13</f>
         <v>0.20512820512820512</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y14" s="9">
         <f>'Churn Analysis'!Y13/'Churn Analysis'!$B13</f>
         <v>0.17948717948717949</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z14" s="9">
         <f>'Churn Analysis'!Z13/'Churn Analysis'!$B13</f>
         <v>0.17948717948717949</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA14" s="9">
         <f>'Churn Analysis'!AA13/'Churn Analysis'!$B13</f>
         <v>0.17948717948717949</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>2041</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B15" s="8">
         <f>'Churn Analysis'!B14/'Churn Analysis'!$B14</f>
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="9">
         <f>'Churn Analysis'!C14/'Churn Analysis'!$B14</f>
         <v>0.97297297297297303</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <f>'Churn Analysis'!D14/'Churn Analysis'!$B14</f>
         <v>0.91891891891891897</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <f>'Churn Analysis'!E14/'Churn Analysis'!$B14</f>
         <v>0.81081081081081086</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <f>'Churn Analysis'!F14/'Churn Analysis'!$B14</f>
         <v>0.81081081081081086</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <f>'Churn Analysis'!G14/'Churn Analysis'!$B14</f>
         <v>0.81081081081081086</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <f>'Churn Analysis'!H14/'Churn Analysis'!$B14</f>
         <v>0.78378378378378377</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <f>'Churn Analysis'!I14/'Churn Analysis'!$B14</f>
         <v>0.7567567567567568</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <f>'Churn Analysis'!J14/'Churn Analysis'!$B14</f>
         <v>0.7567567567567568</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <f>'Churn Analysis'!K14/'Churn Analysis'!$B14</f>
         <v>0.7567567567567568</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <f>'Churn Analysis'!L14/'Churn Analysis'!$B14</f>
         <v>0.70270270270270274</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M15" s="9">
         <f>'Churn Analysis'!M14/'Churn Analysis'!$B14</f>
         <v>0.6216216216216216</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <f>'Churn Analysis'!N14/'Churn Analysis'!$B14</f>
         <v>0.59459459459459463</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O15" s="9">
         <f>'Churn Analysis'!O14/'Churn Analysis'!$B14</f>
         <v>0.48648648648648651</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P15" s="9">
         <f>'Churn Analysis'!P14/'Churn Analysis'!$B14</f>
         <v>0.45945945945945948</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q15" s="9">
         <f>'Churn Analysis'!Q14/'Churn Analysis'!$B14</f>
         <v>0.45945945945945948</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R15" s="9">
         <f>'Churn Analysis'!R14/'Churn Analysis'!$B14</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S15" s="9">
         <f>'Churn Analysis'!S14/'Churn Analysis'!$B14</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T15" s="9">
         <f>'Churn Analysis'!T14/'Churn Analysis'!$B14</f>
         <v>0.35135135135135137</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U15" s="9">
         <f>'Churn Analysis'!U14/'Churn Analysis'!$B14</f>
         <v>0.29729729729729731</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V15" s="9">
         <f>'Churn Analysis'!V14/'Churn Analysis'!$B14</f>
         <v>0.29729729729729731</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W15" s="9">
         <f>'Churn Analysis'!W14/'Churn Analysis'!$B14</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X15" s="9">
         <f>'Churn Analysis'!X14/'Churn Analysis'!$B14</f>
         <v>0.24324324324324326</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y15" s="9">
         <f>'Churn Analysis'!Y14/'Churn Analysis'!$B14</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z15" s="9">
         <f>'Churn Analysis'!Z14/'Churn Analysis'!$B14</f>
         <v>0.13513513513513514</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA15" s="9">
         <f>'Churn Analysis'!AA14/'Churn Analysis'!$B14</f>
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>2042</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <f>'Churn Analysis'!B15/'Churn Analysis'!$B15</f>
         <v>1</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="9">
         <f>'Churn Analysis'!C15/'Churn Analysis'!$B15</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <f>'Churn Analysis'!D15/'Churn Analysis'!$B15</f>
         <v>0.9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <f>'Churn Analysis'!E15/'Churn Analysis'!$B15</f>
         <v>0.875</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <f>'Churn Analysis'!F15/'Churn Analysis'!$B15</f>
         <v>0.85</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <f>'Churn Analysis'!G15/'Churn Analysis'!$B15</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <f>'Churn Analysis'!H15/'Churn Analysis'!$B15</f>
         <v>0.8</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <f>'Churn Analysis'!I15/'Churn Analysis'!$B15</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <f>'Churn Analysis'!J15/'Churn Analysis'!$B15</f>
         <v>0.75</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <f>'Churn Analysis'!K15/'Churn Analysis'!$B15</f>
         <v>0.75</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="9">
         <f>'Churn Analysis'!L15/'Churn Analysis'!$B15</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="9">
         <f>'Churn Analysis'!M15/'Churn Analysis'!$B15</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <f>'Churn Analysis'!N15/'Churn Analysis'!$B15</f>
         <v>0.7</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O16" s="9">
         <f>'Churn Analysis'!O15/'Churn Analysis'!$B15</f>
         <v>0.65</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P16" s="9">
         <f>'Churn Analysis'!P15/'Churn Analysis'!$B15</f>
         <v>0.625</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q16" s="9">
         <f>'Churn Analysis'!Q15/'Churn Analysis'!$B15</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R16" s="9">
         <f>'Churn Analysis'!R15/'Churn Analysis'!$B15</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S16" s="9">
         <f>'Churn Analysis'!S15/'Churn Analysis'!$B15</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T16" s="9">
         <f>'Churn Analysis'!T15/'Churn Analysis'!$B15</f>
         <v>0.45</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U16" s="9">
         <f>'Churn Analysis'!U15/'Churn Analysis'!$B15</f>
         <v>0.4</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V16" s="9">
         <f>'Churn Analysis'!V15/'Churn Analysis'!$B15</f>
         <v>0.3</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W16" s="9">
         <f>'Churn Analysis'!W15/'Churn Analysis'!$B15</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X16" s="9">
         <f>'Churn Analysis'!X15/'Churn Analysis'!$B15</f>
         <v>0.2</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y16" s="9">
         <f>'Churn Analysis'!Y15/'Churn Analysis'!$B15</f>
         <v>0.2</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z16" s="9">
         <f>'Churn Analysis'!Z15/'Churn Analysis'!$B15</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA16" s="9">
         <f>'Churn Analysis'!AA15/'Churn Analysis'!$B15</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>2043</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <f>'Churn Analysis'!B16/'Churn Analysis'!$B16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="9">
         <f>'Churn Analysis'!C16/'Churn Analysis'!$B16</f>
         <v>0.5625</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <f>'Churn Analysis'!D16/'Churn Analysis'!$B16</f>
         <v>0.46875</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <f>'Churn Analysis'!E16/'Churn Analysis'!$B16</f>
         <v>0.3125</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <f>'Churn Analysis'!F16/'Churn Analysis'!$B16</f>
         <v>0.28125</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <f>'Churn Analysis'!G16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <f>'Churn Analysis'!H16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <f>'Churn Analysis'!I16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <f>'Churn Analysis'!J16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <f>'Churn Analysis'!K16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="9">
         <f>'Churn Analysis'!L16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M17" s="9">
         <f>'Churn Analysis'!M16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <f>'Churn Analysis'!N16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O17" s="9">
         <f>'Churn Analysis'!O16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P17" s="9">
         <f>'Churn Analysis'!P16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q17" s="9">
         <f>'Churn Analysis'!Q16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R17" s="9">
         <f>'Churn Analysis'!R16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S17" s="9">
         <f>'Churn Analysis'!S16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T17" s="9">
         <f>'Churn Analysis'!T16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U17" s="9">
         <f>'Churn Analysis'!U16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V17" s="9">
         <f>'Churn Analysis'!V16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W17" s="9">
         <f>'Churn Analysis'!W16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X17" s="9">
         <f>'Churn Analysis'!X16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y17" s="9">
         <f>'Churn Analysis'!Y16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z17" s="9">
         <f>'Churn Analysis'!Z16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA17" s="9">
         <f>'Churn Analysis'!AA16/'Churn Analysis'!$B16</f>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>2044</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <f>'Churn Analysis'!B17/'Churn Analysis'!$B17</f>
         <v>1</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="9">
         <f>'Churn Analysis'!C17/'Churn Analysis'!$B17</f>
         <v>0.97777777777777775</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <f>'Churn Analysis'!D17/'Churn Analysis'!$B17</f>
         <v>0.9555555555555556</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <f>'Churn Analysis'!E17/'Churn Analysis'!$B17</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <f>'Churn Analysis'!F17/'Churn Analysis'!$B17</f>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <f>'Churn Analysis'!G17/'Churn Analysis'!$B17</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <f>'Churn Analysis'!H17/'Churn Analysis'!$B17</f>
         <v>0.84444444444444444</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <f>'Churn Analysis'!I17/'Churn Analysis'!$B17</f>
         <v>0.8</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="9">
         <f>'Churn Analysis'!J17/'Churn Analysis'!$B17</f>
         <v>0.8</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <f>'Churn Analysis'!K17/'Churn Analysis'!$B17</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <f>'Churn Analysis'!L17/'Churn Analysis'!$B17</f>
         <v>0.75555555555555554</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M18" s="9">
         <f>'Churn Analysis'!M17/'Churn Analysis'!$B17</f>
         <v>0.68888888888888888</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <f>'Churn Analysis'!N17/'Churn Analysis'!$B17</f>
         <v>0.64444444444444449</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O18" s="9">
         <f>'Churn Analysis'!O17/'Churn Analysis'!$B17</f>
         <v>0.64444444444444449</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P18" s="9">
         <f>'Churn Analysis'!P17/'Churn Analysis'!$B17</f>
         <v>0.6</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q18" s="9">
         <f>'Churn Analysis'!Q17/'Churn Analysis'!$B17</f>
         <v>0.6</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R18" s="9">
         <f>'Churn Analysis'!R17/'Churn Analysis'!$B17</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S18" s="9">
         <f>'Churn Analysis'!S17/'Churn Analysis'!$B17</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T18" s="9">
         <f>'Churn Analysis'!T17/'Churn Analysis'!$B17</f>
         <v>0.51111111111111107</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U18" s="9">
         <f>'Churn Analysis'!U17/'Churn Analysis'!$B17</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V18" s="9">
         <f>'Churn Analysis'!V17/'Churn Analysis'!$B17</f>
         <v>0.37777777777777777</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W18" s="9">
         <f>'Churn Analysis'!W17/'Churn Analysis'!$B17</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X18" s="9">
         <f>'Churn Analysis'!X17/'Churn Analysis'!$B17</f>
         <v>0.24444444444444444</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y18" s="9">
         <f>'Churn Analysis'!Y17/'Churn Analysis'!$B17</f>
         <v>0.24444444444444444</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z18" s="9">
         <f>'Churn Analysis'!Z17/'Churn Analysis'!$B17</f>
         <v>0.24444444444444444</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA18" s="9">
         <f>'Churn Analysis'!AA17/'Churn Analysis'!$B17</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>2045</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="8">
         <f>'Churn Analysis'!B18/'Churn Analysis'!$B18</f>
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C19" s="9">
         <f>'Churn Analysis'!C18/'Churn Analysis'!$B18</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <f>'Churn Analysis'!D18/'Churn Analysis'!$B18</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <f>'Churn Analysis'!E18/'Churn Analysis'!$B18</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <f>'Churn Analysis'!F18/'Churn Analysis'!$B18</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <f>'Churn Analysis'!G18/'Churn Analysis'!$B18</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <f>'Churn Analysis'!H18/'Churn Analysis'!$B18</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <f>'Churn Analysis'!I18/'Churn Analysis'!$B18</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <f>'Churn Analysis'!J18/'Churn Analysis'!$B18</f>
         <v>0.7</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <f>'Churn Analysis'!K18/'Churn Analysis'!$B18</f>
         <v>0.6</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <f>'Churn Analysis'!L18/'Churn Analysis'!$B18</f>
         <v>0.6</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="9">
         <f>'Churn Analysis'!M18/'Churn Analysis'!$B18</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <f>'Churn Analysis'!N18/'Churn Analysis'!$B18</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O19" s="9">
         <f>'Churn Analysis'!O18/'Churn Analysis'!$B18</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P19" s="9">
         <f>'Churn Analysis'!P18/'Churn Analysis'!$B18</f>
         <v>0.5</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q19" s="9">
         <f>'Churn Analysis'!Q18/'Churn Analysis'!$B18</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R19" s="9">
         <f>'Churn Analysis'!R18/'Churn Analysis'!$B18</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S19" s="9">
         <f>'Churn Analysis'!S18/'Churn Analysis'!$B18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T19" s="9">
         <f>'Churn Analysis'!T18/'Churn Analysis'!$B18</f>
         <v>0.3</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U19" s="9">
         <f>'Churn Analysis'!U18/'Churn Analysis'!$B18</f>
         <v>0.3</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V19" s="9">
         <f>'Churn Analysis'!V18/'Churn Analysis'!$B18</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W19" s="9">
         <f>'Churn Analysis'!W18/'Churn Analysis'!$B18</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X19" s="9">
         <f>'Churn Analysis'!X18/'Churn Analysis'!$B18</f>
         <v>0.2</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y19" s="9">
         <f>'Churn Analysis'!Y18/'Churn Analysis'!$B18</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z19" s="9">
         <f>'Churn Analysis'!Z18/'Churn Analysis'!$B18</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA19" s="9">
         <f>'Churn Analysis'!AA18/'Churn Analysis'!$B18</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>2046</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B20" s="8">
         <f>'Churn Analysis'!B19/'Churn Analysis'!$B19</f>
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="9">
         <f>'Churn Analysis'!C19/'Churn Analysis'!$B19</f>
         <v>0.94285714285714284</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <f>'Churn Analysis'!D19/'Churn Analysis'!$B19</f>
         <v>0.91428571428571426</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <f>'Churn Analysis'!E19/'Churn Analysis'!$B19</f>
         <v>0.91428571428571426</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <f>'Churn Analysis'!F19/'Churn Analysis'!$B19</f>
         <v>0.91428571428571426</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <f>'Churn Analysis'!G19/'Churn Analysis'!$B19</f>
         <v>0.88571428571428568</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <f>'Churn Analysis'!H19/'Churn Analysis'!$B19</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <f>'Churn Analysis'!I19/'Churn Analysis'!$B19</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <f>'Churn Analysis'!J19/'Churn Analysis'!$B19</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <f>'Churn Analysis'!K19/'Churn Analysis'!$B19</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L20" s="9">
         <f>'Churn Analysis'!L19/'Churn Analysis'!$B19</f>
         <v>0.65714285714285714</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M20" s="9">
         <f>'Churn Analysis'!M19/'Churn Analysis'!$B19</f>
         <v>0.65714285714285714</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="9">
         <f>'Churn Analysis'!N19/'Churn Analysis'!$B19</f>
         <v>0.6</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O20" s="9">
         <f>'Churn Analysis'!O19/'Churn Analysis'!$B19</f>
         <v>0.54285714285714282</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P20" s="9">
         <f>'Churn Analysis'!P19/'Churn Analysis'!$B19</f>
         <v>0.51428571428571423</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q20" s="9">
         <f>'Churn Analysis'!Q19/'Churn Analysis'!$B19</f>
         <v>0.51428571428571423</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R20" s="9">
         <f>'Churn Analysis'!R19/'Churn Analysis'!$B19</f>
         <v>0.48571428571428571</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S20" s="9">
         <f>'Churn Analysis'!S19/'Churn Analysis'!$B19</f>
         <v>0.45714285714285713</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T20" s="9">
         <f>'Churn Analysis'!T19/'Churn Analysis'!$B19</f>
         <v>0.4</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U20" s="9">
         <f>'Churn Analysis'!U19/'Churn Analysis'!$B19</f>
         <v>0.37142857142857144</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V20" s="9">
         <f>'Churn Analysis'!V19/'Churn Analysis'!$B19</f>
         <v>0.34285714285714286</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W20" s="9">
         <f>'Churn Analysis'!W19/'Churn Analysis'!$B19</f>
         <v>0.25714285714285712</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X20" s="9">
         <f>'Churn Analysis'!X19/'Churn Analysis'!$B19</f>
         <v>0.2</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y20" s="9">
         <f>'Churn Analysis'!Y19/'Churn Analysis'!$B19</f>
         <v>0.2</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z20" s="9">
         <f>'Churn Analysis'!Z19/'Churn Analysis'!$B19</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA20" s="9">
         <f>'Churn Analysis'!AA19/'Churn Analysis'!$B19</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>2047</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B21" s="8">
         <f>'Churn Analysis'!B20/'Churn Analysis'!$B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C21" s="9">
         <f>'Churn Analysis'!C20/'Churn Analysis'!$B20</f>
         <v>0.95348837209302328</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <f>'Churn Analysis'!D20/'Churn Analysis'!$B20</f>
         <v>0.95348837209302328</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <f>'Churn Analysis'!E20/'Churn Analysis'!$B20</f>
         <v>0.90697674418604646</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <f>'Churn Analysis'!F20/'Churn Analysis'!$B20</f>
         <v>0.86046511627906974</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <f>'Churn Analysis'!G20/'Churn Analysis'!$B20</f>
         <v>0.83720930232558144</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <f>'Churn Analysis'!H20/'Churn Analysis'!$B20</f>
         <v>0.81395348837209303</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <f>'Churn Analysis'!I20/'Churn Analysis'!$B20</f>
         <v>0.79069767441860461</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <f>'Churn Analysis'!J20/'Churn Analysis'!$B20</f>
         <v>0.79069767441860461</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <f>'Churn Analysis'!K20/'Churn Analysis'!$B20</f>
         <v>0.79069767441860461</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="9">
         <f>'Churn Analysis'!L20/'Churn Analysis'!$B20</f>
         <v>0.79069767441860461</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M21" s="9">
         <f>'Churn Analysis'!M20/'Churn Analysis'!$B20</f>
         <v>0.79069767441860461</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="9">
         <f>'Churn Analysis'!N20/'Churn Analysis'!$B20</f>
         <v>0.65116279069767447</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O21" s="9">
         <f>'Churn Analysis'!O20/'Churn Analysis'!$B20</f>
         <v>0.58139534883720934</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P21" s="9">
         <f>'Churn Analysis'!P20/'Churn Analysis'!$B20</f>
         <v>0.58139534883720934</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q21" s="9">
         <f>'Churn Analysis'!Q20/'Churn Analysis'!$B20</f>
         <v>0.55813953488372092</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R21" s="9">
         <f>'Churn Analysis'!R20/'Churn Analysis'!$B20</f>
         <v>0.53488372093023251</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S21" s="9">
         <f>'Churn Analysis'!S20/'Churn Analysis'!$B20</f>
         <v>0.46511627906976744</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T21" s="9">
         <f>'Churn Analysis'!T20/'Churn Analysis'!$B20</f>
         <v>0.39534883720930231</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U21" s="9">
         <f>'Churn Analysis'!U20/'Churn Analysis'!$B20</f>
         <v>0.37209302325581395</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V21" s="9">
         <f>'Churn Analysis'!V20/'Churn Analysis'!$B20</f>
         <v>0.34883720930232559</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W21" s="9">
         <f>'Churn Analysis'!W20/'Churn Analysis'!$B20</f>
         <v>0.32558139534883723</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X21" s="9">
         <f>'Churn Analysis'!X20/'Churn Analysis'!$B20</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y21" s="9">
         <f>'Churn Analysis'!Y20/'Churn Analysis'!$B20</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z21" s="9">
         <f>'Churn Analysis'!Z20/'Churn Analysis'!$B20</f>
         <v>0.27906976744186046</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA21" s="9">
         <f>'Churn Analysis'!AA20/'Churn Analysis'!$B20</f>
         <v>0.18604651162790697</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>2048</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B22" s="8">
         <f>'Churn Analysis'!B21/'Churn Analysis'!$B21</f>
         <v>1</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="9">
         <f>'Churn Analysis'!C21/'Churn Analysis'!$B21</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <f>'Churn Analysis'!D21/'Churn Analysis'!$B21</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <f>'Churn Analysis'!E21/'Churn Analysis'!$B21</f>
         <v>0.79411764705882348</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <f>'Churn Analysis'!F21/'Churn Analysis'!$B21</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <f>'Churn Analysis'!G21/'Churn Analysis'!$B21</f>
         <v>0.67647058823529416</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <f>'Churn Analysis'!H21/'Churn Analysis'!$B21</f>
         <v>0.67647058823529416</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <f>'Churn Analysis'!I21/'Churn Analysis'!$B21</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <f>'Churn Analysis'!J21/'Churn Analysis'!$B21</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <f>'Churn Analysis'!K21/'Churn Analysis'!$B21</f>
         <v>0.55882352941176472</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <f>'Churn Analysis'!L21/'Churn Analysis'!$B21</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M22" s="9">
         <f>'Churn Analysis'!M21/'Churn Analysis'!$B21</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <f>'Churn Analysis'!N21/'Churn Analysis'!$B21</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O22" s="9">
         <f>'Churn Analysis'!O21/'Churn Analysis'!$B21</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P22" s="9">
         <f>'Churn Analysis'!P21/'Churn Analysis'!$B21</f>
         <v>0.44117647058823528</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q22" s="9">
         <f>'Churn Analysis'!Q21/'Churn Analysis'!$B21</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R22" s="9">
         <f>'Churn Analysis'!R21/'Churn Analysis'!$B21</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S22" s="9">
         <f>'Churn Analysis'!S21/'Churn Analysis'!$B21</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T22" s="9">
         <f>'Churn Analysis'!T21/'Churn Analysis'!$B21</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U22" s="9">
         <f>'Churn Analysis'!U21/'Churn Analysis'!$B21</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V22" s="9">
         <f>'Churn Analysis'!V21/'Churn Analysis'!$B21</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W22" s="9">
         <f>'Churn Analysis'!W21/'Churn Analysis'!$B21</f>
         <v>0.26470588235294118</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X22" s="9">
         <f>'Churn Analysis'!X21/'Churn Analysis'!$B21</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y22" s="9">
         <f>'Churn Analysis'!Y21/'Churn Analysis'!$B21</f>
         <v>0.20588235294117646</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z22" s="9">
         <f>'Churn Analysis'!Z21/'Churn Analysis'!$B21</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA22" s="9">
         <f>'Churn Analysis'!AA21/'Churn Analysis'!$B21</f>
         <v>0.14705882352941177</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:27" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>2049</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B23" s="8">
         <f>'Churn Analysis'!B22/'Churn Analysis'!$B22</f>
         <v>1</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C23" s="9">
         <f>'Churn Analysis'!C22/'Churn Analysis'!$B22</f>
         <v>1</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <f>'Churn Analysis'!D22/'Churn Analysis'!$B22</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <f>'Churn Analysis'!E22/'Churn Analysis'!$B22</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <f>'Churn Analysis'!F22/'Churn Analysis'!$B22</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <f>'Churn Analysis'!G22/'Churn Analysis'!$B22</f>
         <v>0.94871794871794868</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <f>'Churn Analysis'!H22/'Churn Analysis'!$B22</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <f>'Churn Analysis'!I22/'Churn Analysis'!$B22</f>
         <v>0.89743589743589747</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="9">
         <f>'Churn Analysis'!J22/'Churn Analysis'!$B22</f>
         <v>0.82051282051282048</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <f>'Churn Analysis'!K22/'Churn Analysis'!$B22</f>
         <v>0.79487179487179482</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="9">
         <f>'Churn Analysis'!L22/'Churn Analysis'!$B22</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M23" s="9">
         <f>'Churn Analysis'!M22/'Churn Analysis'!$B22</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N23" s="9">
         <f>'Churn Analysis'!N22/'Churn Analysis'!$B22</f>
         <v>0.74358974358974361</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O23" s="9">
         <f>'Churn Analysis'!O22/'Churn Analysis'!$B22</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P23" s="9">
         <f>'Churn Analysis'!P22/'Churn Analysis'!$B22</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q23" s="9">
         <f>'Churn Analysis'!Q22/'Churn Analysis'!$B22</f>
         <v>0.58974358974358976</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R23" s="9">
         <f>'Churn Analysis'!R22/'Churn Analysis'!$B22</f>
         <v>0.5641025641025641</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S23" s="9">
         <f>'Churn Analysis'!S22/'Churn Analysis'!$B22</f>
         <v>0.48717948717948717</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T23" s="9">
         <f>'Churn Analysis'!T22/'Churn Analysis'!$B22</f>
         <v>0.48717948717948717</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U23" s="9">
         <f>'Churn Analysis'!U22/'Churn Analysis'!$B22</f>
         <v>0.41025641025641024</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V23" s="9">
         <f>'Churn Analysis'!V22/'Churn Analysis'!$B22</f>
         <v>0.41025641025641024</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W23" s="9">
         <f>'Churn Analysis'!W22/'Churn Analysis'!$B22</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X23" s="9">
         <f>'Churn Analysis'!X22/'Churn Analysis'!$B22</f>
         <v>0.25641025641025639</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y23" s="9">
         <f>'Churn Analysis'!Y22/'Churn Analysis'!$B22</f>
         <v>0.25641025641025639</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z23" s="9">
         <f>'Churn Analysis'!Z22/'Churn Analysis'!$B22</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA23" s="9">
         <f>'Churn Analysis'!AA22/'Churn Analysis'!$B22</f>
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:27" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>2052</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B24" s="8">
         <f>'Churn Analysis'!B23/'Churn Analysis'!$B23</f>
         <v>1</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="9">
         <f>'Churn Analysis'!C23/'Churn Analysis'!$B23</f>
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <f>'Churn Analysis'!D23/'Churn Analysis'!$B23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <f>'Churn Analysis'!E23/'Churn Analysis'!$B23</f>
         <v>1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <f>'Churn Analysis'!F23/'Churn Analysis'!$B23</f>
         <v>1</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <f>'Churn Analysis'!G23/'Churn Analysis'!$B23</f>
         <v>1</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="9">
         <f>'Churn Analysis'!H23/'Churn Analysis'!$B23</f>
         <v>0.95121951219512191</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="9">
         <f>'Churn Analysis'!I23/'Churn Analysis'!$B23</f>
         <v>0.90243902439024393</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J24" s="9">
         <f>'Churn Analysis'!J23/'Churn Analysis'!$B23</f>
         <v>0.82926829268292679</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="9">
         <f>'Churn Analysis'!K23/'Churn Analysis'!$B23</f>
         <v>0.80487804878048785</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L24" s="9">
         <f>'Churn Analysis'!L23/'Churn Analysis'!$B23</f>
         <v>0.78048780487804881</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M24" s="9">
         <f>'Churn Analysis'!M23/'Churn Analysis'!$B23</f>
         <v>0.68292682926829273</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N24" s="9">
         <f>'Churn Analysis'!N23/'Churn Analysis'!$B23</f>
         <v>0.68292682926829273</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O24" s="9">
         <f>'Churn Analysis'!O23/'Churn Analysis'!$B23</f>
         <v>0.65853658536585369</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P24" s="9">
         <f>'Churn Analysis'!P23/'Churn Analysis'!$B23</f>
         <v>0.6097560975609756</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q24" s="9">
         <f>'Churn Analysis'!Q23/'Churn Analysis'!$B23</f>
         <v>0.56097560975609762</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R24" s="9">
         <f>'Churn Analysis'!R23/'Churn Analysis'!$B23</f>
         <v>0.43902439024390244</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S24" s="9">
         <f>'Churn Analysis'!S23/'Churn Analysis'!$B23</f>
         <v>0.43902439024390244</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T24" s="9">
         <f>'Churn Analysis'!T23/'Churn Analysis'!$B23</f>
         <v>0.43902439024390244</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U24" s="9">
         <f>'Churn Analysis'!U23/'Churn Analysis'!$B23</f>
         <v>0.41463414634146339</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V24" s="9">
         <f>'Churn Analysis'!V23/'Churn Analysis'!$B23</f>
         <v>0.34146341463414637</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W24" s="9">
         <f>'Churn Analysis'!W23/'Churn Analysis'!$B23</f>
         <v>0.34146341463414637</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X24" s="9">
         <f>'Churn Analysis'!X23/'Churn Analysis'!$B23</f>
         <v>0.26829268292682928</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y24" s="9">
         <f>'Churn Analysis'!Y23/'Churn Analysis'!$B23</f>
         <v>0.24390243902439024</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z24" s="9">
         <f>'Churn Analysis'!Z23/'Churn Analysis'!$B23</f>
         <v>0.17073170731707318</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA24" s="9">
         <f>'Churn Analysis'!AA23/'Churn Analysis'!$B23</f>
         <v>0.17073170731707318</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="25" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>2053</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B25" s="8">
         <f>'Churn Analysis'!B24/'Churn Analysis'!$B24</f>
         <v>1</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <f>'Churn Analysis'!C24/'Churn Analysis'!$B24</f>
         <v>1</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <f>'Churn Analysis'!D24/'Churn Analysis'!$B24</f>
         <v>0.96153846153846156</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <f>'Churn Analysis'!E24/'Churn Analysis'!$B24</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <f>'Churn Analysis'!F24/'Churn Analysis'!$B24</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <f>'Churn Analysis'!G24/'Churn Analysis'!$B24</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H25" s="9">
         <f>'Churn Analysis'!H24/'Churn Analysis'!$B24</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I25" s="9">
         <f>'Churn Analysis'!I24/'Churn Analysis'!$B24</f>
         <v>0.80769230769230771</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="9">
         <f>'Churn Analysis'!J24/'Churn Analysis'!$B24</f>
         <v>0.80769230769230771</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <f>'Churn Analysis'!K24/'Churn Analysis'!$B24</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="9">
         <f>'Churn Analysis'!L24/'Churn Analysis'!$B24</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M25" s="9">
         <f>'Churn Analysis'!M24/'Churn Analysis'!$B24</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="9">
         <f>'Churn Analysis'!N24/'Churn Analysis'!$B24</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O25" s="9">
         <f>'Churn Analysis'!O24/'Churn Analysis'!$B24</f>
         <v>0.57692307692307687</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P25" s="9">
         <f>'Churn Analysis'!P24/'Churn Analysis'!$B24</f>
         <v>0.5</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q25" s="9">
         <f>'Churn Analysis'!Q24/'Churn Analysis'!$B24</f>
         <v>0.5</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R25" s="9">
         <f>'Churn Analysis'!R24/'Churn Analysis'!$B24</f>
         <v>0.5</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S25" s="9">
         <f>'Churn Analysis'!S24/'Churn Analysis'!$B24</f>
         <v>0.5</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T25" s="9">
         <f>'Churn Analysis'!T24/'Churn Analysis'!$B24</f>
         <v>0.5</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U25" s="9">
         <f>'Churn Analysis'!U24/'Churn Analysis'!$B24</f>
         <v>0.42307692307692307</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V25" s="9">
         <f>'Churn Analysis'!V24/'Churn Analysis'!$B24</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W25" s="9">
         <f>'Churn Analysis'!W24/'Churn Analysis'!$B24</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X25" s="9">
         <f>'Churn Analysis'!X24/'Churn Analysis'!$B24</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y25" s="9">
         <f>'Churn Analysis'!Y24/'Churn Analysis'!$B24</f>
         <v>0.11538461538461539</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z25" s="9">
         <f>'Churn Analysis'!Z24/'Churn Analysis'!$B24</f>
         <v>0.11538461538461539</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA25" s="9">
         <f>'Churn Analysis'!AA24/'Churn Analysis'!$B24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>2054</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B26" s="8">
         <f>'Churn Analysis'!B25/'Churn Analysis'!$B25</f>
         <v>1</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="9">
         <f>'Churn Analysis'!C25/'Churn Analysis'!$B25</f>
         <v>1</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <f>'Churn Analysis'!D25/'Churn Analysis'!$B25</f>
         <v>0.98039215686274506</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <f>'Churn Analysis'!E25/'Churn Analysis'!$B25</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <f>'Churn Analysis'!F25/'Churn Analysis'!$B25</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <f>'Churn Analysis'!G25/'Churn Analysis'!$B25</f>
         <v>0.84313725490196079</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="9">
         <f>'Churn Analysis'!H25/'Churn Analysis'!$B25</f>
         <v>0.80392156862745101</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="9">
         <f>'Churn Analysis'!I25/'Churn Analysis'!$B25</f>
         <v>0.74509803921568629</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J26" s="9">
         <f>'Churn Analysis'!J25/'Churn Analysis'!$B25</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <f>'Churn Analysis'!K25/'Churn Analysis'!$B25</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="9">
         <f>'Churn Analysis'!L25/'Churn Analysis'!$B25</f>
         <v>0.60784313725490191</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M26" s="9">
         <f>'Churn Analysis'!M25/'Churn Analysis'!$B25</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="9">
         <f>'Churn Analysis'!N25/'Churn Analysis'!$B25</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O26" s="9">
         <f>'Churn Analysis'!O25/'Churn Analysis'!$B25</f>
         <v>0.56862745098039214</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P26" s="9">
         <f>'Churn Analysis'!P25/'Churn Analysis'!$B25</f>
         <v>0.50980392156862742</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q26" s="9">
         <f>'Churn Analysis'!Q25/'Churn Analysis'!$B25</f>
         <v>0.49019607843137253</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R26" s="9">
         <f>'Churn Analysis'!R25/'Churn Analysis'!$B25</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S26" s="9">
         <f>'Churn Analysis'!S25/'Churn Analysis'!$B25</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T26" s="9">
         <f>'Churn Analysis'!T25/'Churn Analysis'!$B25</f>
         <v>0.37254901960784315</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U26" s="9">
         <f>'Churn Analysis'!U25/'Churn Analysis'!$B25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V26" s="9">
         <f>'Churn Analysis'!V25/'Churn Analysis'!$B25</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W26" s="9">
         <f>'Churn Analysis'!W25/'Churn Analysis'!$B25</f>
         <v>0.27450980392156865</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X26" s="9">
         <f>'Churn Analysis'!X25/'Churn Analysis'!$B25</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y26" s="9">
         <f>'Churn Analysis'!Y25/'Churn Analysis'!$B25</f>
         <v>0.21568627450980393</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z26" s="9">
         <f>'Churn Analysis'!Z25/'Churn Analysis'!$B25</f>
         <v>0.19607843137254902</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA26" s="9">
         <f>'Churn Analysis'!AA25/'Churn Analysis'!$B25</f>
         <v>0.19607843137254902</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>2055</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <f>'Churn Analysis'!B26/'Churn Analysis'!$B26</f>
         <v>1</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="9">
         <f>'Churn Analysis'!C26/'Churn Analysis'!$B26</f>
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <f>'Churn Analysis'!D26/'Churn Analysis'!$B26</f>
         <v>0.97368421052631582</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <f>'Churn Analysis'!E26/'Churn Analysis'!$B26</f>
         <v>0.92105263157894735</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <f>'Churn Analysis'!F26/'Churn Analysis'!$B26</f>
         <v>0.89473684210526316</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <f>'Churn Analysis'!G26/'Churn Analysis'!$B26</f>
         <v>0.81578947368421051</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <f>'Churn Analysis'!H26/'Churn Analysis'!$B26</f>
         <v>0.78947368421052633</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <f>'Churn Analysis'!I26/'Churn Analysis'!$B26</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="9">
         <f>'Churn Analysis'!J26/'Churn Analysis'!$B26</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="9">
         <f>'Churn Analysis'!K26/'Churn Analysis'!$B26</f>
         <v>0.71052631578947367</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="9">
         <f>'Churn Analysis'!L26/'Churn Analysis'!$B26</f>
         <v>0.71052631578947367</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M27" s="9">
         <f>'Churn Analysis'!M26/'Churn Analysis'!$B26</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <f>'Churn Analysis'!N26/'Churn Analysis'!$B26</f>
         <v>0.60526315789473684</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O27" s="9">
         <f>'Churn Analysis'!O26/'Churn Analysis'!$B26</f>
         <v>0.55263157894736847</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P27" s="9">
         <f>'Churn Analysis'!P26/'Churn Analysis'!$B26</f>
         <v>0.55263157894736847</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q27" s="9">
         <f>'Churn Analysis'!Q26/'Churn Analysis'!$B26</f>
         <v>0.5</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R27" s="9">
         <f>'Churn Analysis'!R26/'Churn Analysis'!$B26</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S27" s="9">
         <f>'Churn Analysis'!S26/'Churn Analysis'!$B26</f>
         <v>0.39473684210526316</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T27" s="9">
         <f>'Churn Analysis'!T26/'Churn Analysis'!$B26</f>
         <v>0.34210526315789475</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U27" s="9">
         <f>'Churn Analysis'!U26/'Churn Analysis'!$B26</f>
         <v>0.34210526315789475</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V27" s="9">
         <f>'Churn Analysis'!V26/'Churn Analysis'!$B26</f>
         <v>0.34210526315789475</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W27" s="9">
         <f>'Churn Analysis'!W26/'Churn Analysis'!$B26</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X27" s="9">
         <f>'Churn Analysis'!X26/'Churn Analysis'!$B26</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y27" s="9">
         <f>'Churn Analysis'!Y26/'Churn Analysis'!$B26</f>
         <v>0.18421052631578946</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z27" s="9">
         <f>'Churn Analysis'!Z26/'Churn Analysis'!$B26</f>
         <v>0.13157894736842105</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA27" s="9">
         <f>'Churn Analysis'!AA26/'Churn Analysis'!$B26</f>
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>2056</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <f>'Churn Analysis'!B27/'Churn Analysis'!$B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <f>'Churn Analysis'!C27/'Churn Analysis'!$B27</f>
         <v>0.96</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <f>'Churn Analysis'!D27/'Churn Analysis'!$B27</f>
         <v>0.92</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <f>'Churn Analysis'!E27/'Churn Analysis'!$B27</f>
         <v>0.9</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <f>'Churn Analysis'!F27/'Churn Analysis'!$B27</f>
         <v>0.86</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <f>'Churn Analysis'!G27/'Churn Analysis'!$B27</f>
         <v>0.84</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <f>'Churn Analysis'!H27/'Churn Analysis'!$B27</f>
         <v>0.78</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <f>'Churn Analysis'!I27/'Churn Analysis'!$B27</f>
         <v>0.72</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <f>'Churn Analysis'!J27/'Churn Analysis'!$B27</f>
         <v>0.72</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <f>'Churn Analysis'!K27/'Churn Analysis'!$B27</f>
         <v>0.64</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <f>'Churn Analysis'!L27/'Churn Analysis'!$B27</f>
         <v>0.6</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M28" s="9">
         <f>'Churn Analysis'!M27/'Churn Analysis'!$B27</f>
         <v>0.6</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="9">
         <f>'Churn Analysis'!N27/'Churn Analysis'!$B27</f>
         <v>0.6</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O28" s="9">
         <f>'Churn Analysis'!O27/'Churn Analysis'!$B27</f>
         <v>0.54</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P28" s="9">
         <f>'Churn Analysis'!P27/'Churn Analysis'!$B27</f>
         <v>0.5</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q28" s="9">
         <f>'Churn Analysis'!Q27/'Churn Analysis'!$B27</f>
         <v>0.5</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R28" s="9">
         <f>'Churn Analysis'!R27/'Churn Analysis'!$B27</f>
         <v>0.44</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S28" s="9">
         <f>'Churn Analysis'!S27/'Churn Analysis'!$B27</f>
         <v>0.44</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T28" s="9">
         <f>'Churn Analysis'!T27/'Churn Analysis'!$B27</f>
         <v>0.42</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U28" s="9">
         <f>'Churn Analysis'!U27/'Churn Analysis'!$B27</f>
         <v>0.4</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V28" s="9">
         <f>'Churn Analysis'!V27/'Churn Analysis'!$B27</f>
         <v>0.36</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W28" s="9">
         <f>'Churn Analysis'!W27/'Churn Analysis'!$B27</f>
         <v>0.3</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X28" s="9">
         <f>'Churn Analysis'!X27/'Churn Analysis'!$B27</f>
         <v>0.2</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y28" s="9">
         <f>'Churn Analysis'!Y27/'Churn Analysis'!$B27</f>
         <v>0.16</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z28" s="9">
         <f>'Churn Analysis'!Z27/'Churn Analysis'!$B27</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA28" s="9">
         <f>'Churn Analysis'!AA27/'Churn Analysis'!$B27</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="29" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>2057</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B29" s="8">
         <f>'Churn Analysis'!B28/'Churn Analysis'!$B28</f>
         <v>1</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <f>'Churn Analysis'!C28/'Churn Analysis'!$B28</f>
         <v>1</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <f>'Churn Analysis'!D28/'Churn Analysis'!$B28</f>
         <v>0.967741935483871</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <f>'Churn Analysis'!E28/'Churn Analysis'!$B28</f>
         <v>0.90322580645161288</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <f>'Churn Analysis'!F28/'Churn Analysis'!$B28</f>
         <v>0.83870967741935487</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <f>'Churn Analysis'!G28/'Churn Analysis'!$B28</f>
         <v>0.80645161290322576</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <f>'Churn Analysis'!H28/'Churn Analysis'!$B28</f>
         <v>0.80645161290322576</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <f>'Churn Analysis'!I28/'Churn Analysis'!$B28</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="9">
         <f>'Churn Analysis'!J28/'Churn Analysis'!$B28</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <f>'Churn Analysis'!K28/'Churn Analysis'!$B28</f>
         <v>0.70967741935483875</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <f>'Churn Analysis'!L28/'Churn Analysis'!$B28</f>
         <v>0.67741935483870963</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M29" s="9">
         <f>'Churn Analysis'!M28/'Churn Analysis'!$B28</f>
         <v>0.67741935483870963</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="9">
         <f>'Churn Analysis'!N28/'Churn Analysis'!$B28</f>
         <v>0.67741935483870963</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O29" s="9">
         <f>'Churn Analysis'!O28/'Churn Analysis'!$B28</f>
         <v>0.64516129032258063</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P29" s="9">
         <f>'Churn Analysis'!P28/'Churn Analysis'!$B28</f>
         <v>0.64516129032258063</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q29" s="9">
         <f>'Churn Analysis'!Q28/'Churn Analysis'!$B28</f>
         <v>0.61290322580645162</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R29" s="9">
         <f>'Churn Analysis'!R28/'Churn Analysis'!$B28</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S29" s="9">
         <f>'Churn Analysis'!S28/'Churn Analysis'!$B28</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T29" s="9">
         <f>'Churn Analysis'!T28/'Churn Analysis'!$B28</f>
         <v>0.5161290322580645</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U29" s="9">
         <f>'Churn Analysis'!U28/'Churn Analysis'!$B28</f>
         <v>0.45161290322580644</v>
       </c>
-      <c r="V28" s="9">
+      <c r="V29" s="9">
         <f>'Churn Analysis'!V28/'Churn Analysis'!$B28</f>
         <v>0.38709677419354838</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W29" s="9">
         <f>'Churn Analysis'!W28/'Churn Analysis'!$B28</f>
         <v>0.35483870967741937</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X29" s="9">
         <f>'Churn Analysis'!X28/'Churn Analysis'!$B28</f>
         <v>0.35483870967741937</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y29" s="9">
         <f>'Churn Analysis'!Y28/'Churn Analysis'!$B28</f>
         <v>0.29032258064516131</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z29" s="9">
         <f>'Churn Analysis'!Z28/'Churn Analysis'!$B28</f>
         <v>0.25806451612903225</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA29" s="9">
         <f>'Churn Analysis'!AA28/'Churn Analysis'!$B28</f>
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>2058</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <f>'Churn Analysis'!B29/'Churn Analysis'!$B29</f>
         <v>1</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <f>'Churn Analysis'!C29/'Churn Analysis'!$B29</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <f>'Churn Analysis'!D29/'Churn Analysis'!$B29</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <f>'Churn Analysis'!E29/'Churn Analysis'!$B29</f>
         <v>0.89473684210526316</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <f>'Churn Analysis'!F29/'Churn Analysis'!$B29</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <f>'Churn Analysis'!G29/'Churn Analysis'!$B29</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <f>'Churn Analysis'!H29/'Churn Analysis'!$B29</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <f>'Churn Analysis'!I29/'Churn Analysis'!$B29</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="9">
         <f>'Churn Analysis'!J29/'Churn Analysis'!$B29</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <f>'Churn Analysis'!K29/'Churn Analysis'!$B29</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <f>'Churn Analysis'!L29/'Churn Analysis'!$B29</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M30" s="9">
         <f>'Churn Analysis'!M29/'Churn Analysis'!$B29</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="9">
         <f>'Churn Analysis'!N29/'Churn Analysis'!$B29</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O30" s="9">
         <f>'Churn Analysis'!O29/'Churn Analysis'!$B29</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P30" s="9">
         <f>'Churn Analysis'!P29/'Churn Analysis'!$B29</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q30" s="9">
         <f>'Churn Analysis'!Q29/'Churn Analysis'!$B29</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R30" s="9">
         <f>'Churn Analysis'!R29/'Churn Analysis'!$B29</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S30" s="9">
         <f>'Churn Analysis'!S29/'Churn Analysis'!$B29</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T30" s="9">
         <f>'Churn Analysis'!T29/'Churn Analysis'!$B29</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U30" s="9">
         <f>'Churn Analysis'!U29/'Churn Analysis'!$B29</f>
         <v>0.31578947368421051</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V30" s="9">
         <f>'Churn Analysis'!V29/'Churn Analysis'!$B29</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W30" s="9">
         <f>'Churn Analysis'!W29/'Churn Analysis'!$B29</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X30" s="9">
         <f>'Churn Analysis'!X29/'Churn Analysis'!$B29</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y30" s="9">
         <f>'Churn Analysis'!Y29/'Churn Analysis'!$B29</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z30" s="9">
         <f>'Churn Analysis'!Z29/'Churn Analysis'!$B29</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA30" s="9">
         <f>'Churn Analysis'!AA29/'Churn Analysis'!$B29</f>
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-    </row>
-    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C63" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+    </row>
+    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>5</v>
-      </c>
-      <c r="F64">
-        <v>6</v>
-      </c>
-      <c r="G64">
-        <v>7</v>
-      </c>
-      <c r="H64">
-        <v>8</v>
-      </c>
-      <c r="I64">
-        <v>9</v>
-      </c>
-      <c r="J64">
-        <v>10</v>
-      </c>
-      <c r="K64">
-        <v>11</v>
-      </c>
-      <c r="L64">
-        <v>12</v>
-      </c>
-      <c r="M64">
-        <v>13</v>
-      </c>
-      <c r="N64">
-        <v>14</v>
-      </c>
-      <c r="O64">
-        <v>15</v>
-      </c>
-      <c r="P64">
-        <v>16</v>
-      </c>
-      <c r="Q64">
-        <v>17</v>
-      </c>
-      <c r="R64">
-        <v>18</v>
-      </c>
-      <c r="S64">
-        <v>19</v>
-      </c>
-      <c r="T64">
-        <v>20</v>
-      </c>
-      <c r="U64">
-        <v>21</v>
-      </c>
-      <c r="V64">
-        <v>22</v>
-      </c>
-      <c r="W64">
-        <v>23</v>
-      </c>
-      <c r="X64">
-        <v>24</v>
-      </c>
-      <c r="Y64">
-        <v>25</v>
-      </c>
-      <c r="Z64">
-        <v>26</v>
-      </c>
-      <c r="AA64">
-        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B65">
-        <v>18</v>
+        <v>2050</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2051</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="L65">
+        <v>12</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>14</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="U65">
+        <v>21</v>
+      </c>
+      <c r="V65">
+        <v>22</v>
+      </c>
+      <c r="W65">
+        <v>23</v>
+      </c>
+      <c r="X65">
+        <v>24</v>
+      </c>
+      <c r="Y65">
+        <v>25</v>
       </c>
       <c r="Z65">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B66">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
         <v>2</v>
       </c>
-      <c r="F66">
-        <v>4</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
         <v>2</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>4</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66">
-        <v>1</v>
-      </c>
-      <c r="U66">
-        <v>1</v>
-      </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
-      <c r="W66">
-        <v>2</v>
-      </c>
-      <c r="X66">
-        <v>1</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>3</v>
       </c>
       <c r="AA66">
         <v>1</v>
@@ -20384,223 +20405,229 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B67">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="D67">
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
         <v>3</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>5</v>
-      </c>
-      <c r="P67">
-        <v>3</v>
-      </c>
-      <c r="Q67">
-        <v>4</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <v>1</v>
-      </c>
-      <c r="V67">
-        <v>3</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67">
-        <v>2</v>
-      </c>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-      <c r="Z67">
-        <v>2</v>
+      <c r="AA67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B68">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
         <v>2</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="L68">
         <v>2</v>
       </c>
-      <c r="G68">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
         <v>2</v>
       </c>
-      <c r="H68">
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
         <v>3</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>4</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>3</v>
-      </c>
-      <c r="R68">
-        <v>4</v>
-      </c>
-      <c r="S68">
-        <v>1</v>
-      </c>
-      <c r="T68">
-        <v>1</v>
-      </c>
-      <c r="U68">
+      <c r="W68">
         <v>1</v>
       </c>
       <c r="X68">
         <v>2</v>
       </c>
       <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
         <v>2</v>
-      </c>
-      <c r="Z68">
-        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B69">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
         <v>3</v>
       </c>
-      <c r="H69">
+      <c r="R69">
+        <v>4</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="X69">
         <v>2</v>
       </c>
-      <c r="I69">
+      <c r="Y69">
         <v>2</v>
       </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69">
+      <c r="Z69">
         <v>3</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>2</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>2</v>
-      </c>
-      <c r="R69">
-        <v>3</v>
-      </c>
-      <c r="S69">
-        <v>4</v>
-      </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="V69">
-        <v>1</v>
-      </c>
-      <c r="W69">
-        <v>3</v>
-      </c>
-      <c r="X69">
-        <v>1</v>
-      </c>
-      <c r="Z69">
-        <v>2</v>
-      </c>
-      <c r="AA69">
-        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B70">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
       <c r="F70">
         <v>1</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -20608,97 +20635,94 @@
       <c r="I70">
         <v>2</v>
       </c>
-      <c r="K70">
-        <v>1</v>
+      <c r="L70">
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
         <v>3</v>
       </c>
-      <c r="P70">
+      <c r="S70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>3</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
         <v>2</v>
       </c>
-      <c r="R70">
-        <v>6</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>2</v>
-      </c>
-      <c r="Y70">
-        <v>1</v>
+      <c r="AA70">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B71">
-        <v>50</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
+      <c r="F71">
+        <v>1</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
         <v>2</v>
       </c>
       <c r="K71">
-        <v>4</v>
-      </c>
-      <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>2</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
         <v>2</v>
       </c>
-      <c r="T71">
-        <v>1</v>
-      </c>
       <c r="W71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X71">
         <v>2</v>
@@ -20706,131 +20730,137 @@
       <c r="Y71">
         <v>1</v>
       </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B72">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
       <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
       <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
         <v>2</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="W72">
         <v>3</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>4</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>2</v>
-      </c>
-      <c r="S72">
-        <v>6</v>
-      </c>
-      <c r="U72">
-        <v>1</v>
-      </c>
-      <c r="V72">
-        <v>1</v>
-      </c>
-      <c r="W72">
-        <v>2</v>
       </c>
       <c r="X72">
         <v>2</v>
       </c>
-      <c r="AA72">
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B73">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
         <v>3</v>
       </c>
-      <c r="F73">
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>4</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
         <v>2</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="L73">
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
         <v>2</v>
       </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>2</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>2</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>1</v>
-      </c>
-      <c r="U73">
-        <v>5</v>
-      </c>
-      <c r="V73">
-        <v>1</v>
-      </c>
       <c r="X73">
-        <v>1</v>
-      </c>
-      <c r="Y73">
         <v>2</v>
       </c>
       <c r="AA73">
@@ -20839,107 +20869,113 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B74">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
         <v>3</v>
       </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
         <v>1</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
       </c>
       <c r="L74">
         <v>2</v>
       </c>
-      <c r="N74">
-        <v>2</v>
+      <c r="M74">
+        <v>1</v>
       </c>
       <c r="O74">
         <v>2</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="R74">
         <v>2</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>5</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
         <v>2</v>
       </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
-      <c r="W74">
-        <v>2</v>
-      </c>
-      <c r="Y74">
+      <c r="AA74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B75">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
         <v>2</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
       </c>
       <c r="L75">
         <v>2</v>
       </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
       <c r="N75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
         <v>4</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
         <v>2</v>
       </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
       <c r="T75">
         <v>2</v>
       </c>
       <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
         <v>2</v>
       </c>
       <c r="W75">
@@ -20948,208 +20984,205 @@
       <c r="Y75">
         <v>1</v>
       </c>
-      <c r="Z75">
-        <v>3</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B76">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
         <v>3</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="R76">
         <v>2</v>
       </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76">
+      <c r="T76">
         <v>2</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76">
-        <v>4</v>
       </c>
       <c r="U76">
         <v>2</v>
       </c>
-      <c r="V76">
-        <v>4</v>
-      </c>
       <c r="W76">
+        <v>2</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
         <v>3</v>
       </c>
-      <c r="X76">
-        <v>1</v>
-      </c>
-      <c r="Z76">
-        <v>1</v>
-      </c>
       <c r="AA76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B77">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
         <v>4</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>4</v>
+      </c>
+      <c r="W77">
+        <v>3</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B78">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="P78">
-        <v>2</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="T78">
-        <v>1</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
         <v>4</v>
-      </c>
-      <c r="W78">
-        <v>1</v>
-      </c>
-      <c r="X78">
-        <v>5</v>
-      </c>
-      <c r="AA78">
-        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B79">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>2</v>
       </c>
-      <c r="D79">
+      <c r="I79">
         <v>2</v>
       </c>
-      <c r="E79">
-        <v>4</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
       <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="M79">
-        <v>1</v>
+      <c r="N79">
+        <v>2</v>
       </c>
       <c r="P79">
         <v>2</v>
       </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
       <c r="R79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -21157,234 +21190,231 @@
       <c r="T79">
         <v>1</v>
       </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
       <c r="V79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W79">
         <v>1</v>
       </c>
       <c r="X79">
-        <v>1</v>
-      </c>
-      <c r="Y79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B80">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>5</v>
-      </c>
-      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="P80">
         <v>2</v>
       </c>
-      <c r="N80">
-        <v>2</v>
-      </c>
-      <c r="O80">
-        <v>2</v>
-      </c>
-      <c r="P80">
+      <c r="Q80">
         <v>1</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
         <v>1</v>
       </c>
       <c r="V80">
         <v>1</v>
       </c>
       <c r="W80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X80">
-        <v>2</v>
-      </c>
-      <c r="Z80">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B81">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="L81">
         <v>2</v>
       </c>
-      <c r="F81">
+      <c r="N81">
         <v>2</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>6</v>
-      </c>
       <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
         <v>3</v>
       </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1</v>
-      </c>
-      <c r="S81">
-        <v>3</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
-      <c r="U81">
-        <v>1</v>
-      </c>
-      <c r="V81">
-        <v>1</v>
-      </c>
-      <c r="W81">
-        <v>1</v>
-      </c>
       <c r="X81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z81">
-        <v>1</v>
-      </c>
-      <c r="AA81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B82">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82">
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
         <v>4</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>2</v>
-      </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="T82">
-        <v>2</v>
-      </c>
-      <c r="U82">
-        <v>2</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-      <c r="X82">
-        <v>1</v>
-      </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
-      <c r="Z82">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B83">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="N83">
         <v>1</v>
       </c>
       <c r="O83">
@@ -21394,42 +21424,45 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
-      </c>
-      <c r="AA83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="B84">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -21440,90 +21473,99 @@
       <c r="L84">
         <v>1</v>
       </c>
-      <c r="M84">
-        <v>4</v>
+      <c r="N84">
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R84">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1</v>
-      </c>
-      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
         <v>3</v>
       </c>
       <c r="X84">
         <v>3</v>
       </c>
-      <c r="Y84">
-        <v>1</v>
-      </c>
       <c r="Z84">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B85">
-        <v>26</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
+        <v>41</v>
+      </c>
+      <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
       <c r="K85">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P85">
         <v>2</v>
       </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
       <c r="U85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V85">
-        <v>1</v>
-      </c>
-      <c r="W85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y85">
-        <v>4</v>
-      </c>
-      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B86">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -21531,73 +21573,46 @@
       <c r="E86">
         <v>2</v>
       </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
       <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="J86">
         <v>2</v>
       </c>
       <c r="K86">
         <v>2</v>
       </c>
-      <c r="L86">
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="O86">
         <v>3</v>
       </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
       <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
-      <c r="S86">
-        <v>3</v>
-      </c>
-      <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
         <v>2</v>
       </c>
       <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
         <v>2</v>
       </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
       <c r="X86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y86">
-        <v>1</v>
-      </c>
-      <c r="Z86">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B87">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -21606,34 +21621,37 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>3</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
       </c>
       <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>3</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>2</v>
-      </c>
       <c r="Q87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>1</v>
@@ -21644,8 +21662,14 @@
       <c r="T87">
         <v>2</v>
       </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
       <c r="W87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X87">
         <v>2</v>
@@ -21654,86 +21678,89 @@
         <v>1</v>
       </c>
       <c r="Z87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B88">
-        <v>50</v>
-      </c>
-      <c r="C88">
+        <v>38</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
         <v>2</v>
       </c>
-      <c r="D88">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
         <v>2</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
+      <c r="Q88">
         <v>2</v>
       </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
         <v>3</v>
       </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-      <c r="L88">
-        <v>2</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>2</v>
-      </c>
-      <c r="R88">
-        <v>3</v>
-      </c>
       <c r="T88">
-        <v>1</v>
-      </c>
-      <c r="U88">
-        <v>1</v>
-      </c>
-      <c r="V88">
         <v>2</v>
       </c>
       <c r="W88">
         <v>3</v>
       </c>
       <c r="X88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
         <v>2</v>
-      </c>
-      <c r="Z88">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -21741,35 +21768,41 @@
       <c r="G89">
         <v>1</v>
       </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
       <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
         <v>2</v>
       </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
       <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T89">
         <v>1</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V89">
         <v>2</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X89">
+        <v>5</v>
       </c>
       <c r="Y89">
         <v>2</v>
@@ -21777,59 +21810,116 @@
       <c r="Z89">
         <v>1</v>
       </c>
-      <c r="AA89">
-        <v>1</v>
-      </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B90">
+        <v>31</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>2058</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>19</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
         <v>3</v>
       </c>
-      <c r="J90">
+      <c r="J91">
         <v>2</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="S90">
-        <v>1</v>
-      </c>
-      <c r="U90">
-        <v>1</v>
-      </c>
-      <c r="V90">
-        <v>1</v>
-      </c>
-      <c r="Z90">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:AA30">
+  <conditionalFormatting sqref="A4:AA31">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -21869,7 +21959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:AA59 A33:B33">
+  <conditionalFormatting sqref="A35:AA60 A34:B34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -21879,7 +21969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:XFD30">
+  <conditionalFormatting sqref="A4:XFD31">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -21891,7 +21981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:AA29">
+  <conditionalFormatting sqref="B4:AA30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21901,7 +21991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:AA30">
+  <conditionalFormatting sqref="B4:AA31">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -21911,7 +22001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:AA33">
+  <conditionalFormatting sqref="C34:AA34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -21977,19 +22067,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF7041-4064-4183-A8F5-CA920AE06947}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="G1" s="10" t="s">
-        <v>2060</v>
-      </c>
+    <row r="1" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -26551,8 +26693,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B3 A4:AA29">
     <cfRule type="colorScale" priority="7">
